--- a/database/industries/ghaza/gheshahdab/cost/quarterly.xlsx
+++ b/database/industries/ghaza/gheshahdab/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ghaza\gheshahdab\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshahdab\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754F4CC3-DC0E-4B60-9BAD-E6E7CCC740F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غشهداب-کشت و صنعت شهداب ناب خراسان</t>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -46,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -257,7 +258,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,7 +428,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -439,7 +440,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -486,6 +487,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -521,6 +539,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -672,17 +707,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -692,7 +727,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -704,7 +739,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -716,7 +751,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -726,7 +761,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -738,7 +773,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -750,7 +785,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -760,7 +795,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -782,7 +817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -792,95 +827,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1380405</v>
+        <v>925776</v>
       </c>
       <c r="F10" s="9">
-        <v>925776</v>
+        <v>1120924</v>
       </c>
       <c r="G10" s="9">
-        <v>1120924</v>
+        <v>771653</v>
       </c>
       <c r="H10" s="9">
-        <v>771653</v>
+        <v>2549121</v>
       </c>
       <c r="I10" s="9">
-        <v>2549121</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2981951</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>26325</v>
+        <v>16987</v>
       </c>
       <c r="F11" s="11">
-        <v>16987</v>
+        <v>9049</v>
       </c>
       <c r="G11" s="11">
-        <v>9049</v>
+        <v>22730</v>
       </c>
       <c r="H11" s="11">
-        <v>22730</v>
+        <v>28100</v>
       </c>
       <c r="I11" s="11">
-        <v>28100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24960</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>114299</v>
+        <v>56042</v>
       </c>
       <c r="F12" s="9">
-        <v>56042</v>
+        <v>69970</v>
       </c>
       <c r="G12" s="9">
-        <v>69970</v>
+        <v>24864</v>
       </c>
       <c r="H12" s="9">
-        <v>24864</v>
+        <v>191127</v>
       </c>
       <c r="I12" s="9">
-        <v>191127</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>218356</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1521029</v>
+        <v>998805</v>
       </c>
       <c r="F13" s="13">
-        <v>998805</v>
+        <v>1199943</v>
       </c>
       <c r="G13" s="13">
-        <v>1199943</v>
+        <v>819247</v>
       </c>
       <c r="H13" s="13">
-        <v>819247</v>
+        <v>2768348</v>
       </c>
       <c r="I13" s="13">
-        <v>2768348</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3225267</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -902,29 +937,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1521029</v>
+        <v>998805</v>
       </c>
       <c r="F15" s="13">
-        <v>998805</v>
+        <v>1199943</v>
       </c>
       <c r="G15" s="13">
-        <v>1199943</v>
+        <v>819247</v>
       </c>
       <c r="H15" s="13">
-        <v>819247</v>
+        <v>2768348</v>
       </c>
       <c r="I15" s="13">
-        <v>2768348</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3225267</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -946,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -968,29 +1003,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1521029</v>
+        <v>998805</v>
       </c>
       <c r="F18" s="15">
-        <v>998805</v>
+        <v>1199943</v>
       </c>
       <c r="G18" s="15">
-        <v>1199943</v>
+        <v>819247</v>
       </c>
       <c r="H18" s="15">
-        <v>819247</v>
+        <v>2768348</v>
       </c>
       <c r="I18" s="15">
-        <v>2768348</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3225267</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1000,107 +1035,107 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>813985</v>
       </c>
       <c r="G19" s="11">
-        <v>813985</v>
+        <v>135221</v>
       </c>
       <c r="H19" s="11">
-        <v>135221</v>
+        <v>61187</v>
       </c>
       <c r="I19" s="11">
-        <v>61187</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1013758</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-536676</v>
+        <v>813985</v>
       </c>
       <c r="F20" s="9">
-        <v>813985</v>
+        <v>-135221</v>
       </c>
       <c r="G20" s="9">
-        <v>-135221</v>
+        <v>-61187</v>
       </c>
       <c r="H20" s="9">
-        <v>-61187</v>
+        <v>-1013758</v>
       </c>
       <c r="I20" s="9">
-        <v>-1013758</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1030346</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>984353</v>
+        <v>1812790</v>
       </c>
       <c r="F21" s="13">
-        <v>1812790</v>
+        <v>1726033</v>
       </c>
       <c r="G21" s="13">
-        <v>1726033</v>
+        <v>893281</v>
       </c>
       <c r="H21" s="13">
-        <v>893281</v>
+        <v>1815777</v>
       </c>
       <c r="I21" s="13">
-        <v>1815777</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3208679</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>-162586</v>
+        <v>-287554</v>
       </c>
       <c r="F22" s="9">
-        <v>-287554</v>
+        <v>-275506</v>
       </c>
       <c r="G22" s="9">
-        <v>-275506</v>
+        <v>-4320</v>
       </c>
       <c r="H22" s="9">
-        <v>-4320</v>
+        <v>-74242</v>
       </c>
       <c r="I22" s="9">
-        <v>-74242</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-447245</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>821767</v>
+        <v>1525236</v>
       </c>
       <c r="F23" s="13">
-        <v>1525236</v>
+        <v>1450527</v>
       </c>
       <c r="G23" s="13">
-        <v>1450527</v>
+        <v>888961</v>
       </c>
       <c r="H23" s="13">
-        <v>888961</v>
+        <v>1741535</v>
       </c>
       <c r="I23" s="13">
-        <v>1741535</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2761434</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1110,7 +1145,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1120,7 +1155,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1130,7 +1165,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1152,7 +1187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1162,7 +1197,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1171,22 +1206,22 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>36237834</v>
+        <v>36655712</v>
       </c>
       <c r="F29" s="9">
-        <v>36655712</v>
+        <v>33512062</v>
       </c>
       <c r="G29" s="9">
-        <v>33512062</v>
+        <v>33612217</v>
       </c>
       <c r="H29" s="9">
-        <v>33612217</v>
+        <v>34377207</v>
       </c>
       <c r="I29" s="9">
-        <v>34377207</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26649878</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -1195,22 +1230,22 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>460643</v>
+        <v>262730</v>
       </c>
       <c r="F30" s="11">
-        <v>262730</v>
+        <v>420539</v>
       </c>
       <c r="G30" s="11">
-        <v>420539</v>
+        <v>376525</v>
       </c>
       <c r="H30" s="11">
-        <v>376525</v>
+        <v>321132</v>
       </c>
       <c r="I30" s="11">
-        <v>321132</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>218651</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1232,29 +1267,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>36698477</v>
+        <v>36918442</v>
       </c>
       <c r="F32" s="13">
-        <v>36918442</v>
+        <v>33932601</v>
       </c>
       <c r="G32" s="13">
-        <v>33932601</v>
+        <v>33988742</v>
       </c>
       <c r="H32" s="13">
-        <v>33988742</v>
+        <v>34698339</v>
       </c>
       <c r="I32" s="13">
-        <v>34698339</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26868529</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1264,7 +1299,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1274,7 +1309,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1284,7 +1319,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
@@ -1306,7 +1341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1316,7 +1351,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>24</v>
       </c>
@@ -1325,22 +1360,22 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9">
-        <v>26993646</v>
+        <v>20408643</v>
       </c>
       <c r="F38" s="9">
-        <v>20408643</v>
+        <v>29754595</v>
       </c>
       <c r="G38" s="9">
-        <v>29754595</v>
+        <v>14518752</v>
       </c>
       <c r="H38" s="9">
-        <v>14518752</v>
+        <v>18058841</v>
       </c>
       <c r="I38" s="9">
-        <v>18058841</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22001785</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>26</v>
       </c>
@@ -1349,22 +1384,22 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>29290346</v>
+        <v>9388875</v>
       </c>
       <c r="F39" s="11">
-        <v>9388875</v>
+        <v>2802926</v>
       </c>
       <c r="G39" s="11">
-        <v>2802926</v>
+        <v>2214072</v>
       </c>
       <c r="H39" s="11">
-        <v>2214072</v>
+        <v>25852145</v>
       </c>
       <c r="I39" s="11">
-        <v>25852145</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33620599</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
@@ -1386,29 +1421,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>56283992</v>
+        <v>29797518</v>
       </c>
       <c r="F41" s="13">
-        <v>29797518</v>
+        <v>32557521</v>
       </c>
       <c r="G41" s="13">
-        <v>32557521</v>
+        <v>16732824</v>
       </c>
       <c r="H41" s="13">
-        <v>16732824</v>
+        <v>43910986</v>
       </c>
       <c r="I41" s="13">
-        <v>43910986</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>55622384</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1418,7 +1453,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1428,7 +1463,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1438,7 +1473,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>31</v>
       </c>
@@ -1460,7 +1495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1470,7 +1505,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>24</v>
       </c>
@@ -1479,22 +1514,22 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>26575768</v>
+        <v>23552293</v>
       </c>
       <c r="F47" s="9">
-        <v>23552293</v>
+        <v>29549441</v>
       </c>
       <c r="G47" s="9">
-        <v>29549441</v>
+        <v>13753762</v>
       </c>
       <c r="H47" s="9">
-        <v>13753762</v>
+        <v>25786170</v>
       </c>
       <c r="I47" s="9">
-        <v>25786170</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24981863</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>26</v>
       </c>
@@ -1503,22 +1538,22 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>29488259</v>
+        <v>9231066</v>
       </c>
       <c r="F48" s="11">
-        <v>9231066</v>
+        <v>2951940</v>
       </c>
       <c r="G48" s="11">
-        <v>2951940</v>
+        <v>2269465</v>
       </c>
       <c r="H48" s="11">
-        <v>2269465</v>
+        <v>25954626</v>
       </c>
       <c r="I48" s="11">
-        <v>25954626</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33536080</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>28</v>
       </c>
@@ -1540,29 +1575,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>56064027</v>
+        <v>32783359</v>
       </c>
       <c r="F50" s="13">
-        <v>32783359</v>
+        <v>32501381</v>
       </c>
       <c r="G50" s="13">
-        <v>32501381</v>
+        <v>16023227</v>
       </c>
       <c r="H50" s="13">
-        <v>16023227</v>
+        <v>51740796</v>
       </c>
       <c r="I50" s="13">
-        <v>51740796</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>58517943</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1572,7 +1607,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1582,7 +1617,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1592,7 +1627,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>32</v>
       </c>
@@ -1614,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1624,7 +1659,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>24</v>
       </c>
@@ -1633,22 +1668,22 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
-        <v>36655712</v>
+        <v>33512062</v>
       </c>
       <c r="F56" s="9">
-        <v>33512062</v>
+        <v>33717216</v>
       </c>
       <c r="G56" s="9">
-        <v>33717216</v>
+        <v>34377207</v>
       </c>
       <c r="H56" s="9">
-        <v>34377207</v>
+        <v>26649878</v>
       </c>
       <c r="I56" s="9">
-        <v>26649878</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23669800</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>26</v>
       </c>
@@ -1657,22 +1692,22 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>262730</v>
+        <v>420539</v>
       </c>
       <c r="F57" s="11">
-        <v>420539</v>
+        <v>271525</v>
       </c>
       <c r="G57" s="11">
-        <v>271525</v>
+        <v>321132</v>
       </c>
       <c r="H57" s="11">
-        <v>321132</v>
+        <v>218651</v>
       </c>
       <c r="I57" s="11">
-        <v>218651</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>303170</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>28</v>
       </c>
@@ -1694,29 +1729,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>36918442</v>
+        <v>33932601</v>
       </c>
       <c r="F59" s="13">
-        <v>33932601</v>
+        <v>33988741</v>
       </c>
       <c r="G59" s="13">
-        <v>33988741</v>
+        <v>34698339</v>
       </c>
       <c r="H59" s="13">
-        <v>34698339</v>
+        <v>26868529</v>
       </c>
       <c r="I59" s="13">
-        <v>26868529</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23972970</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1726,7 +1761,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1736,7 +1771,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1746,7 +1781,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>33</v>
       </c>
@@ -1768,7 +1803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1778,7 +1813,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>24</v>
       </c>
@@ -1787,22 +1822,22 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>292018</v>
+        <v>267384</v>
       </c>
       <c r="F65" s="9">
-        <v>267384</v>
+        <v>323358</v>
       </c>
       <c r="G65" s="9">
-        <v>323358</v>
+        <v>452184</v>
       </c>
       <c r="H65" s="9">
-        <v>452184</v>
+        <v>578927</v>
       </c>
       <c r="I65" s="9">
-        <v>578927</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>424263</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>26</v>
       </c>
@@ -1811,22 +1846,22 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>83567</v>
+        <v>72425</v>
       </c>
       <c r="F66" s="11">
-        <v>72425</v>
+        <v>72284</v>
       </c>
       <c r="G66" s="11">
-        <v>72284</v>
+        <v>77208</v>
       </c>
       <c r="H66" s="11">
-        <v>77208</v>
+        <v>144477</v>
       </c>
       <c r="I66" s="11">
-        <v>144477</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>90246</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>28</v>
       </c>
@@ -1850,29 +1885,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>375585</v>
+        <v>339809</v>
       </c>
       <c r="F68" s="13">
-        <v>339809</v>
+        <v>395642</v>
       </c>
       <c r="G68" s="13">
-        <v>395642</v>
+        <v>529392</v>
       </c>
       <c r="H68" s="13">
-        <v>529392</v>
+        <v>723404</v>
       </c>
       <c r="I68" s="13">
-        <v>723404</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>514509</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1882,7 +1917,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1892,7 +1927,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1902,7 +1937,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>35</v>
       </c>
@@ -1924,7 +1959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1934,7 +1969,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>24</v>
       </c>
@@ -1943,22 +1978,22 @@
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
-        <v>323833</v>
+        <v>290491</v>
       </c>
       <c r="F74" s="9">
-        <v>290491</v>
+        <v>824595</v>
       </c>
       <c r="G74" s="9">
-        <v>824595</v>
+        <v>377312</v>
       </c>
       <c r="H74" s="9">
-        <v>377312</v>
+        <v>324602</v>
       </c>
       <c r="I74" s="9">
-        <v>324602</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>449922</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>26</v>
       </c>
@@ -1967,22 +2002,22 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>1020796</v>
+        <v>691118</v>
       </c>
       <c r="F75" s="11">
-        <v>691118</v>
+        <v>430078</v>
       </c>
       <c r="G75" s="11">
-        <v>430078</v>
+        <v>588353</v>
       </c>
       <c r="H75" s="11">
-        <v>588353</v>
+        <v>2015624</v>
       </c>
       <c r="I75" s="11">
-        <v>2015624</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2553366</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>28</v>
       </c>
@@ -2006,29 +2041,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>1344629</v>
+        <v>981609</v>
       </c>
       <c r="F77" s="13">
-        <v>981609</v>
+        <v>1254673</v>
       </c>
       <c r="G77" s="13">
-        <v>1254673</v>
+        <v>965665</v>
       </c>
       <c r="H77" s="13">
-        <v>965665</v>
+        <v>2340226</v>
       </c>
       <c r="I77" s="13">
-        <v>2340226</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3003288</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2038,7 +2073,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2048,7 +2083,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2058,7 +2093,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>36</v>
       </c>
@@ -2080,7 +2115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2090,7 +2125,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>24</v>
       </c>
@@ -2099,22 +2134,22 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>348467</v>
+        <v>234517</v>
       </c>
       <c r="F83" s="9">
-        <v>234517</v>
+        <v>684849</v>
       </c>
       <c r="G83" s="9">
-        <v>684849</v>
+        <v>250569</v>
       </c>
       <c r="H83" s="9">
-        <v>250569</v>
+        <v>479266</v>
       </c>
       <c r="I83" s="9">
-        <v>479266</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>466559</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>26</v>
       </c>
@@ -2123,22 +2158,22 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>1031938</v>
+        <v>691259</v>
       </c>
       <c r="F84" s="11">
-        <v>691259</v>
+        <v>436075</v>
       </c>
       <c r="G84" s="11">
-        <v>436075</v>
+        <v>521084</v>
       </c>
       <c r="H84" s="11">
-        <v>521084</v>
+        <v>2069855</v>
       </c>
       <c r="I84" s="11">
-        <v>2069855</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2515392</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>28</v>
       </c>
@@ -2162,29 +2197,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>1380405</v>
+        <v>925776</v>
       </c>
       <c r="F86" s="13">
-        <v>925776</v>
+        <v>1120924</v>
       </c>
       <c r="G86" s="13">
-        <v>1120924</v>
+        <v>771653</v>
       </c>
       <c r="H86" s="13">
-        <v>771653</v>
+        <v>2549121</v>
       </c>
       <c r="I86" s="13">
-        <v>2549121</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2981951</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2194,7 +2229,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2204,7 +2239,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2214,7 +2249,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>37</v>
       </c>
@@ -2236,7 +2271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2246,7 +2281,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>24</v>
       </c>
@@ -2255,22 +2290,22 @@
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9">
-        <v>267384</v>
+        <v>323358</v>
       </c>
       <c r="F92" s="9">
-        <v>323358</v>
+        <v>463104</v>
       </c>
       <c r="G92" s="9">
-        <v>463104</v>
+        <v>578927</v>
       </c>
       <c r="H92" s="9">
-        <v>578927</v>
+        <v>424263</v>
       </c>
       <c r="I92" s="9">
-        <v>424263</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>407626</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>26</v>
       </c>
@@ -2279,22 +2314,22 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>72425</v>
+        <v>72284</v>
       </c>
       <c r="F93" s="11">
-        <v>72284</v>
+        <v>66287</v>
       </c>
       <c r="G93" s="11">
-        <v>66287</v>
+        <v>144477</v>
       </c>
       <c r="H93" s="11">
-        <v>144477</v>
+        <v>90246</v>
       </c>
       <c r="I93" s="11">
-        <v>90246</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>128220</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>28</v>
       </c>
@@ -2318,29 +2353,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>339809</v>
+        <v>395642</v>
       </c>
       <c r="F95" s="13">
-        <v>395642</v>
+        <v>529391</v>
       </c>
       <c r="G95" s="13">
-        <v>529391</v>
+        <v>723404</v>
       </c>
       <c r="H95" s="13">
-        <v>723404</v>
+        <v>514509</v>
       </c>
       <c r="I95" s="13">
-        <v>514509</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>535846</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2350,7 +2385,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2360,7 +2395,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2370,7 +2405,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>38</v>
       </c>
@@ -2392,7 +2427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2402,7 +2437,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>24</v>
       </c>
@@ -2411,22 +2446,22 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>8058</v>
+        <v>7294</v>
       </c>
       <c r="F101" s="9">
-        <v>7294</v>
+        <v>9649</v>
       </c>
       <c r="G101" s="9">
-        <v>9649</v>
+        <v>13453</v>
       </c>
       <c r="H101" s="9">
-        <v>13453</v>
+        <v>16840</v>
       </c>
       <c r="I101" s="9">
-        <v>16840</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15920</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>26</v>
       </c>
@@ -2435,22 +2470,22 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>181414</v>
+        <v>275663</v>
       </c>
       <c r="F102" s="11">
-        <v>275663</v>
+        <v>171884</v>
       </c>
       <c r="G102" s="11">
-        <v>171884</v>
+        <v>205054</v>
       </c>
       <c r="H102" s="11">
-        <v>205054</v>
+        <v>449899</v>
       </c>
       <c r="I102" s="11">
-        <v>449899</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>412740</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2460,7 +2495,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2470,7 +2505,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2480,7 +2515,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>41</v>
       </c>
@@ -2502,7 +2537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2512,7 +2547,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>24</v>
       </c>
@@ -2521,22 +2556,22 @@
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
-        <v>11997</v>
+        <v>14234</v>
       </c>
       <c r="F108" s="9">
-        <v>14234</v>
+        <v>27713</v>
       </c>
       <c r="G108" s="9">
-        <v>27713</v>
+        <v>25988</v>
       </c>
       <c r="H108" s="9">
-        <v>25988</v>
+        <v>17975</v>
       </c>
       <c r="I108" s="9">
-        <v>17975</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20449</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>26</v>
       </c>
@@ -2545,22 +2580,22 @@
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
-        <v>34851</v>
+        <v>73610</v>
       </c>
       <c r="F109" s="11">
-        <v>73610</v>
+        <v>153439</v>
       </c>
       <c r="G109" s="11">
-        <v>153439</v>
+        <v>265733</v>
       </c>
       <c r="H109" s="11">
-        <v>265733</v>
+        <v>77967</v>
       </c>
       <c r="I109" s="11">
-        <v>77967</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>75946</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2570,7 +2605,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2580,7 +2615,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2590,7 +2625,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>42</v>
       </c>
@@ -2612,7 +2647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2622,7 +2657,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>24</v>
       </c>
@@ -2631,22 +2666,22 @@
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>13112</v>
+        <v>9957</v>
       </c>
       <c r="F115" s="9">
-        <v>9957</v>
+        <v>23176</v>
       </c>
       <c r="G115" s="9">
-        <v>23176</v>
+        <v>18218</v>
       </c>
       <c r="H115" s="9">
-        <v>18218</v>
+        <v>18586</v>
       </c>
       <c r="I115" s="9">
-        <v>18586</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18676</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>26</v>
       </c>
@@ -2655,22 +2690,22 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>34995</v>
+        <v>74884</v>
       </c>
       <c r="F116" s="11">
-        <v>74884</v>
+        <v>147725</v>
       </c>
       <c r="G116" s="11">
-        <v>147725</v>
+        <v>229607</v>
       </c>
       <c r="H116" s="11">
-        <v>229607</v>
+        <v>79749</v>
       </c>
       <c r="I116" s="11">
-        <v>79749</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>75006</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2680,7 +2715,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2690,7 +2725,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2700,7 +2735,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
         <v>43</v>
       </c>
@@ -2722,7 +2757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2732,7 +2767,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>24</v>
       </c>
@@ -2741,22 +2776,22 @@
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
-        <v>7294</v>
+        <v>9649</v>
       </c>
       <c r="F122" s="9">
-        <v>9649</v>
+        <v>13735</v>
       </c>
       <c r="G122" s="9">
-        <v>13735</v>
+        <v>16840</v>
       </c>
       <c r="H122" s="9">
-        <v>16840</v>
+        <v>15920</v>
       </c>
       <c r="I122" s="9">
-        <v>15920</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17221</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>26</v>
       </c>
@@ -2765,22 +2800,22 @@
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>275663</v>
+        <v>171884</v>
       </c>
       <c r="F123" s="11">
-        <v>171884</v>
+        <v>244129</v>
       </c>
       <c r="G123" s="11">
-        <v>244129</v>
+        <v>449899</v>
       </c>
       <c r="H123" s="11">
-        <v>449899</v>
+        <v>412740</v>
       </c>
       <c r="I123" s="11">
-        <v>412740</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>422931</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2790,7 +2825,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2800,7 +2835,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2810,7 +2845,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B127" s="7" t="s">
         <v>44</v>
       </c>
@@ -2832,7 +2867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2842,29 +2877,29 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>1044</v>
+        <v>4700</v>
       </c>
       <c r="F129" s="9">
-        <v>4700</v>
+        <v>361</v>
       </c>
       <c r="G129" s="9">
-        <v>361</v>
+        <v>1088</v>
       </c>
       <c r="H129" s="9">
-        <v>1088</v>
+        <v>2516</v>
       </c>
       <c r="I129" s="9">
-        <v>2516</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>46</v>
       </c>
@@ -2886,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>47</v>
       </c>
@@ -2908,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>48</v>
       </c>
@@ -2930,73 +2965,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="F133" s="9">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="G133" s="9">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="H133" s="9">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="I133" s="9">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>4721</v>
+        <v>16051</v>
       </c>
       <c r="F134" s="11">
-        <v>16051</v>
+        <v>20429</v>
       </c>
       <c r="G134" s="11">
-        <v>20429</v>
+        <v>5681</v>
       </c>
       <c r="H134" s="11">
-        <v>5681</v>
+        <v>9434</v>
       </c>
       <c r="I134" s="11">
-        <v>9434</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12047</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>9195</v>
+        <v>8874</v>
       </c>
       <c r="F135" s="9">
-        <v>8874</v>
+        <v>8699</v>
       </c>
       <c r="G135" s="9">
-        <v>8699</v>
+        <v>9052</v>
       </c>
       <c r="H135" s="9">
-        <v>9052</v>
+        <v>8980</v>
       </c>
       <c r="I135" s="9">
-        <v>8980</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>52</v>
       </c>
@@ -3018,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>53</v>
       </c>
@@ -3040,51 +3075,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>99138</v>
+        <v>26269</v>
       </c>
       <c r="F138" s="11">
-        <v>26269</v>
+        <v>40278</v>
       </c>
       <c r="G138" s="11">
-        <v>40278</v>
+        <v>8998</v>
       </c>
       <c r="H138" s="11">
-        <v>8998</v>
+        <v>170067</v>
       </c>
       <c r="I138" s="11">
-        <v>170067</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>189119</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
       <c r="E139" s="15">
-        <v>114299</v>
+        <v>56042</v>
       </c>
       <c r="F139" s="15">
-        <v>56042</v>
+        <v>69970</v>
       </c>
       <c r="G139" s="15">
-        <v>69970</v>
+        <v>24864</v>
       </c>
       <c r="H139" s="15">
-        <v>24864</v>
+        <v>191127</v>
       </c>
       <c r="I139" s="15">
-        <v>191127</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>218356</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3094,7 +3129,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3104,7 +3139,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3114,7 +3149,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>55</v>
       </c>
@@ -3126,7 +3161,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3136,7 +3171,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>56</v>
       </c>
@@ -3150,7 +3185,7 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>58</v>
       </c>
@@ -3164,7 +3199,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>60</v>
       </c>
@@ -3175,7 +3210,7 @@
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>62</v>
       </c>
@@ -3186,7 +3221,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>58</v>
       </c>
@@ -3197,7 +3232,7 @@
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>64</v>
       </c>
@@ -3208,7 +3243,7 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>66</v>
       </c>
@@ -3219,7 +3254,7 @@
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>68</v>
       </c>
@@ -3230,7 +3265,7 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>69</v>
       </c>
@@ -3241,7 +3276,7 @@
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>70</v>
       </c>
@@ -3252,7 +3287,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>71</v>
       </c>
@@ -3263,7 +3298,7 @@
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>73</v>
       </c>
@@ -3274,7 +3309,7 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>75</v>
       </c>

--- a/database/industries/ghaza/gheshahdab/cost/quarterly.xlsx
+++ b/database/industries/ghaza/gheshahdab/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshahdab\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754F4CC3-DC0E-4B60-9BAD-E6E7CCC740F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACE0059-1FC3-444E-B513-CFAD86B3FBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -708,16 +723,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I157"/>
+  <dimension ref="B1:N157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -726,8 +741,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -738,8 +758,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -750,8 +775,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -760,8 +790,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -772,8 +807,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -784,8 +824,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -794,8 +839,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -816,8 +866,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -826,98 +891,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>933453</v>
+      </c>
+      <c r="F10" s="9">
+        <v>662037</v>
+      </c>
+      <c r="G10" s="9">
+        <v>261458</v>
+      </c>
+      <c r="H10" s="9">
+        <v>433300</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1380405</v>
+      </c>
+      <c r="J10" s="9">
         <v>925776</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>1120924</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>771653</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>2549121</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>2981951</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>17284</v>
+      </c>
+      <c r="F11" s="11">
+        <v>13998</v>
+      </c>
+      <c r="G11" s="11">
+        <v>14374</v>
+      </c>
+      <c r="H11" s="11">
+        <v>24012</v>
+      </c>
+      <c r="I11" s="11">
+        <v>26325</v>
+      </c>
+      <c r="J11" s="11">
         <v>16987</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>9049</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>22730</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>28100</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>24960</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>124179</v>
+      </c>
+      <c r="F12" s="9">
+        <v>94150</v>
+      </c>
+      <c r="G12" s="9">
+        <v>22217</v>
+      </c>
+      <c r="H12" s="9">
+        <v>26616</v>
+      </c>
+      <c r="I12" s="9">
+        <v>114299</v>
+      </c>
+      <c r="J12" s="9">
         <v>56042</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>69970</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>24864</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>191127</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>218356</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>1074916</v>
+      </c>
+      <c r="F13" s="13">
+        <v>770185</v>
+      </c>
+      <c r="G13" s="13">
+        <v>298049</v>
+      </c>
+      <c r="H13" s="13">
+        <v>483928</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1521029</v>
+      </c>
+      <c r="J13" s="13">
         <v>998805</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>1199943</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>819247</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>2768348</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>3225267</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -936,32 +1066,62 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>1074916</v>
+      </c>
+      <c r="F15" s="13">
+        <v>770185</v>
+      </c>
+      <c r="G15" s="13">
+        <v>298049</v>
+      </c>
+      <c r="H15" s="13">
+        <v>483928</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1521029</v>
+      </c>
+      <c r="J15" s="13">
         <v>998805</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>1199943</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>819247</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>2768348</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>3225267</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -980,10 +1140,25 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1002,140 +1177,245 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>1074916</v>
+      </c>
+      <c r="F18" s="15">
+        <v>770185</v>
+      </c>
+      <c r="G18" s="15">
+        <v>298049</v>
+      </c>
+      <c r="H18" s="15">
+        <v>483928</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1521029</v>
+      </c>
+      <c r="J18" s="15">
         <v>998805</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>1199943</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>819247</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>2768348</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>3225267</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1270151</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>813985</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>135221</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>61187</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>1013758</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-609626</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-56524</v>
+      </c>
+      <c r="G20" s="9">
+        <v>169299</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-938620</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-536676</v>
+      </c>
+      <c r="J20" s="9">
         <v>813985</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-135221</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-61187</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-1013758</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-1030346</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>465291</v>
+      </c>
+      <c r="F21" s="13">
+        <v>713661</v>
+      </c>
+      <c r="G21" s="13">
+        <v>467348</v>
+      </c>
+      <c r="H21" s="13">
+        <v>815459</v>
+      </c>
+      <c r="I21" s="13">
+        <v>984353</v>
+      </c>
+      <c r="J21" s="13">
         <v>1812790</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>1726033</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>893281</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1815777</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>3208679</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
+        <v>-59840</v>
+      </c>
+      <c r="F22" s="9">
+        <v>-51719</v>
+      </c>
+      <c r="G22" s="9">
+        <v>188014</v>
+      </c>
+      <c r="H22" s="9">
+        <v>-86011</v>
+      </c>
+      <c r="I22" s="9">
+        <v>-162586</v>
+      </c>
+      <c r="J22" s="9">
         <v>-287554</v>
       </c>
-      <c r="F22" s="9">
+      <c r="K22" s="9">
         <v>-275506</v>
       </c>
-      <c r="G22" s="9">
+      <c r="L22" s="9">
         <v>-4320</v>
       </c>
-      <c r="H22" s="9">
+      <c r="M22" s="9">
         <v>-74242</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="9">
         <v>-447245</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>405451</v>
+      </c>
+      <c r="F23" s="13">
+        <v>661942</v>
+      </c>
+      <c r="G23" s="13">
+        <v>655362</v>
+      </c>
+      <c r="H23" s="13">
+        <v>729448</v>
+      </c>
+      <c r="I23" s="13">
+        <v>821767</v>
+      </c>
+      <c r="J23" s="13">
         <v>1525236</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>1450527</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>888961</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>1741535</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>2761434</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1144,8 +1424,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1154,8 +1439,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1164,10 +1454,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1186,8 +1481,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1196,100 +1506,165 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>43378650</v>
+      </c>
+      <c r="F29" s="9">
+        <v>35078154</v>
+      </c>
+      <c r="G29" s="9">
+        <v>29439016</v>
+      </c>
+      <c r="H29" s="9">
+        <v>32137749</v>
+      </c>
+      <c r="I29" s="9">
+        <v>36237834</v>
+      </c>
+      <c r="J29" s="9">
         <v>36655712</v>
       </c>
-      <c r="F29" s="9">
+      <c r="K29" s="9">
         <v>33512062</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>33612217</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>34377207</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>26649878</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>365088</v>
+      </c>
+      <c r="F30" s="11">
+        <v>444600</v>
+      </c>
+      <c r="G30" s="11">
+        <v>409059</v>
+      </c>
+      <c r="H30" s="11">
+        <v>305945</v>
+      </c>
+      <c r="I30" s="11">
+        <v>460643</v>
+      </c>
+      <c r="J30" s="11">
         <v>262730</v>
       </c>
-      <c r="F30" s="11">
+      <c r="K30" s="11">
         <v>420539</v>
       </c>
-      <c r="G30" s="11">
+      <c r="L30" s="11">
         <v>376525</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>321132</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>218651</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
+        <v>43743738</v>
+      </c>
+      <c r="F32" s="13">
+        <v>35522754</v>
+      </c>
+      <c r="G32" s="13">
+        <v>29848075</v>
+      </c>
+      <c r="H32" s="13">
+        <v>32443694</v>
+      </c>
+      <c r="I32" s="13">
+        <v>36698477</v>
+      </c>
+      <c r="J32" s="13">
         <v>36918442</v>
       </c>
-      <c r="F32" s="13">
+      <c r="K32" s="13">
         <v>33932601</v>
       </c>
-      <c r="G32" s="13">
+      <c r="L32" s="13">
         <v>33988742</v>
       </c>
-      <c r="H32" s="13">
+      <c r="M32" s="13">
         <v>34698339</v>
       </c>
-      <c r="I32" s="13">
+      <c r="N32" s="13">
         <v>26868529</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1298,8 +1673,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1308,8 +1688,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1318,10 +1703,15 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1340,8 +1730,23 @@
       <c r="I36" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1350,100 +1755,165 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9">
+        <v>23671843</v>
+      </c>
+      <c r="F38" s="9">
+        <v>18664564</v>
+      </c>
+      <c r="G38" s="9">
+        <v>24026753</v>
+      </c>
+      <c r="H38" s="9">
+        <v>21518969</v>
+      </c>
+      <c r="I38" s="9">
+        <v>26993646</v>
+      </c>
+      <c r="J38" s="9">
         <v>20408643</v>
       </c>
-      <c r="F38" s="9">
+      <c r="K38" s="9">
         <v>29754595</v>
       </c>
-      <c r="G38" s="9">
+      <c r="L38" s="9">
         <v>14518752</v>
       </c>
-      <c r="H38" s="9">
+      <c r="M38" s="9">
         <v>18058841</v>
       </c>
-      <c r="I38" s="9">
+      <c r="N38" s="9">
         <v>22001785</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
+        <v>48015899</v>
+      </c>
+      <c r="F39" s="11">
+        <v>27369594</v>
+      </c>
+      <c r="G39" s="11">
+        <v>4962265</v>
+      </c>
+      <c r="H39" s="11">
+        <v>3398708</v>
+      </c>
+      <c r="I39" s="11">
+        <v>29290346</v>
+      </c>
+      <c r="J39" s="11">
         <v>9388875</v>
       </c>
-      <c r="F39" s="11">
+      <c r="K39" s="11">
         <v>2802926</v>
       </c>
-      <c r="G39" s="11">
+      <c r="L39" s="11">
         <v>2214072</v>
       </c>
-      <c r="H39" s="11">
+      <c r="M39" s="11">
         <v>25852145</v>
       </c>
-      <c r="I39" s="11">
+      <c r="N39" s="11">
         <v>33620599</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
+        <v>71687742</v>
+      </c>
+      <c r="F41" s="13">
+        <v>46034158</v>
+      </c>
+      <c r="G41" s="13">
+        <v>28989018</v>
+      </c>
+      <c r="H41" s="13">
+        <v>24917677</v>
+      </c>
+      <c r="I41" s="13">
+        <v>56283992</v>
+      </c>
+      <c r="J41" s="13">
         <v>29797518</v>
       </c>
-      <c r="F41" s="13">
+      <c r="K41" s="13">
         <v>32557521</v>
       </c>
-      <c r="G41" s="13">
+      <c r="L41" s="13">
         <v>16732824</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>43910986</v>
       </c>
-      <c r="I41" s="13">
+      <c r="N41" s="13">
         <v>55622384</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1452,8 +1922,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1462,8 +1937,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1472,10 +1952,15 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1494,8 +1979,23 @@
       <c r="I45" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1504,100 +2004,165 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
+        <v>31972339</v>
+      </c>
+      <c r="F47" s="9">
+        <v>24303702</v>
+      </c>
+      <c r="G47" s="9">
+        <v>22020233</v>
+      </c>
+      <c r="H47" s="9">
+        <v>17418884</v>
+      </c>
+      <c r="I47" s="9">
+        <v>26575768</v>
+      </c>
+      <c r="J47" s="9">
         <v>23552293</v>
       </c>
-      <c r="F47" s="9">
+      <c r="K47" s="9">
         <v>29549441</v>
       </c>
-      <c r="G47" s="9">
+      <c r="L47" s="9">
         <v>13753762</v>
       </c>
-      <c r="H47" s="9">
+      <c r="M47" s="9">
         <v>25786170</v>
       </c>
-      <c r="I47" s="9">
+      <c r="N47" s="9">
         <v>24981863</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>47936387</v>
+      </c>
+      <c r="F48" s="11">
+        <v>27405135</v>
+      </c>
+      <c r="G48" s="11">
+        <v>4373166</v>
+      </c>
+      <c r="H48" s="11">
+        <v>3244010</v>
+      </c>
+      <c r="I48" s="11">
+        <v>29488259</v>
+      </c>
+      <c r="J48" s="11">
         <v>9231066</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>2951940</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>2269465</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>25954626</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>33536080</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
+        <v>79908726</v>
+      </c>
+      <c r="F50" s="13">
+        <v>51708837</v>
+      </c>
+      <c r="G50" s="13">
+        <v>26393399</v>
+      </c>
+      <c r="H50" s="13">
+        <v>20662894</v>
+      </c>
+      <c r="I50" s="13">
+        <v>56064027</v>
+      </c>
+      <c r="J50" s="13">
         <v>32783359</v>
       </c>
-      <c r="F50" s="13">
+      <c r="K50" s="13">
         <v>32501381</v>
       </c>
-      <c r="G50" s="13">
+      <c r="L50" s="13">
         <v>16023227</v>
       </c>
-      <c r="H50" s="13">
+      <c r="M50" s="13">
         <v>51740796</v>
       </c>
-      <c r="I50" s="13">
+      <c r="N50" s="13">
         <v>58517943</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1606,8 +2171,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1616,8 +2186,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1626,10 +2201,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1648,8 +2228,23 @@
       <c r="I54" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1658,100 +2253,165 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
+        <v>35078154</v>
+      </c>
+      <c r="F56" s="9">
+        <v>29439016</v>
+      </c>
+      <c r="G56" s="9">
+        <v>31445536</v>
+      </c>
+      <c r="H56" s="9">
+        <v>36237834</v>
+      </c>
+      <c r="I56" s="9">
+        <v>36655712</v>
+      </c>
+      <c r="J56" s="9">
         <v>33512062</v>
       </c>
-      <c r="F56" s="9">
+      <c r="K56" s="9">
         <v>33717216</v>
       </c>
-      <c r="G56" s="9">
+      <c r="L56" s="9">
         <v>34377207</v>
       </c>
-      <c r="H56" s="9">
+      <c r="M56" s="9">
         <v>26649878</v>
       </c>
-      <c r="I56" s="9">
+      <c r="N56" s="9">
         <v>23669800</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
+        <v>444600</v>
+      </c>
+      <c r="F57" s="11">
+        <v>409059</v>
+      </c>
+      <c r="G57" s="11">
+        <v>998158</v>
+      </c>
+      <c r="H57" s="11">
+        <v>460643</v>
+      </c>
+      <c r="I57" s="11">
+        <v>262730</v>
+      </c>
+      <c r="J57" s="11">
         <v>420539</v>
       </c>
-      <c r="F57" s="11">
+      <c r="K57" s="11">
         <v>271525</v>
       </c>
-      <c r="G57" s="11">
+      <c r="L57" s="11">
         <v>321132</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M57" s="11">
         <v>218651</v>
       </c>
-      <c r="I57" s="11">
+      <c r="N57" s="11">
         <v>303170</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
+        <v>35522754</v>
+      </c>
+      <c r="F59" s="13">
+        <v>29848075</v>
+      </c>
+      <c r="G59" s="13">
+        <v>32443694</v>
+      </c>
+      <c r="H59" s="13">
+        <v>36698477</v>
+      </c>
+      <c r="I59" s="13">
+        <v>36918442</v>
+      </c>
+      <c r="J59" s="13">
         <v>33932601</v>
       </c>
-      <c r="F59" s="13">
+      <c r="K59" s="13">
         <v>33988741</v>
       </c>
-      <c r="G59" s="13">
+      <c r="L59" s="13">
         <v>34698339</v>
       </c>
-      <c r="H59" s="13">
+      <c r="M59" s="13">
         <v>26868529</v>
       </c>
-      <c r="I59" s="13">
+      <c r="N59" s="13">
         <v>23972970</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1760,8 +2420,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1770,8 +2435,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1780,10 +2450,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1802,8 +2477,23 @@
       <c r="I63" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1812,102 +2502,167 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
+        <v>255690</v>
+      </c>
+      <c r="F65" s="9">
+        <v>152977</v>
+      </c>
+      <c r="G65" s="9">
+        <v>101331</v>
+      </c>
+      <c r="H65" s="9">
+        <v>172740</v>
+      </c>
+      <c r="I65" s="9">
+        <v>292018</v>
+      </c>
+      <c r="J65" s="9">
         <v>267384</v>
       </c>
-      <c r="F65" s="9">
+      <c r="K65" s="9">
         <v>323358</v>
       </c>
-      <c r="G65" s="9">
+      <c r="L65" s="9">
         <v>452184</v>
       </c>
-      <c r="H65" s="9">
+      <c r="M65" s="9">
         <v>578927</v>
       </c>
-      <c r="I65" s="9">
+      <c r="N65" s="9">
         <v>424263</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>79038</v>
+      </c>
+      <c r="F66" s="11">
+        <v>77135</v>
+      </c>
+      <c r="G66" s="11">
+        <v>80007</v>
+      </c>
+      <c r="H66" s="11">
+        <v>66217</v>
+      </c>
+      <c r="I66" s="11">
+        <v>83567</v>
+      </c>
+      <c r="J66" s="11">
         <v>72425</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K66" s="11">
         <v>72284</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>77208</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>144477</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>90246</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
+        <v>334728</v>
+      </c>
+      <c r="F68" s="13">
+        <v>230112</v>
+      </c>
+      <c r="G68" s="13">
+        <v>181338</v>
+      </c>
+      <c r="H68" s="13">
+        <v>238957</v>
+      </c>
+      <c r="I68" s="13">
+        <v>375585</v>
+      </c>
+      <c r="J68" s="13">
         <v>339809</v>
       </c>
-      <c r="F68" s="13">
+      <c r="K68" s="13">
         <v>395642</v>
       </c>
-      <c r="G68" s="13">
+      <c r="L68" s="13">
         <v>529392</v>
       </c>
-      <c r="H68" s="13">
+      <c r="M68" s="13">
         <v>723404</v>
       </c>
-      <c r="I68" s="13">
+      <c r="N68" s="13">
         <v>514509</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1916,8 +2671,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1926,8 +2686,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1936,10 +2701,15 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -1958,8 +2728,23 @@
       <c r="I72" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1968,102 +2753,167 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
+        <v>209452</v>
+      </c>
+      <c r="F74" s="9">
+        <v>152942</v>
+      </c>
+      <c r="G74" s="9">
+        <v>156653</v>
+      </c>
+      <c r="H74" s="9">
+        <v>293373</v>
+      </c>
+      <c r="I74" s="9">
+        <v>323833</v>
+      </c>
+      <c r="J74" s="9">
         <v>290491</v>
       </c>
-      <c r="F74" s="9">
+      <c r="K74" s="9">
         <v>824595</v>
       </c>
-      <c r="G74" s="9">
+      <c r="L74" s="9">
         <v>377312</v>
       </c>
-      <c r="H74" s="9">
+      <c r="M74" s="9">
         <v>324602</v>
       </c>
-      <c r="I74" s="9">
+      <c r="N74" s="9">
         <v>449922</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
+        <v>619385</v>
+      </c>
+      <c r="F75" s="11">
+        <v>460321</v>
+      </c>
+      <c r="G75" s="11">
+        <v>162424</v>
+      </c>
+      <c r="H75" s="11">
+        <v>276555</v>
+      </c>
+      <c r="I75" s="11">
+        <v>1020796</v>
+      </c>
+      <c r="J75" s="11">
         <v>691118</v>
       </c>
-      <c r="F75" s="11">
+      <c r="K75" s="11">
         <v>430078</v>
       </c>
-      <c r="G75" s="11">
+      <c r="L75" s="11">
         <v>588353</v>
       </c>
-      <c r="H75" s="11">
+      <c r="M75" s="11">
         <v>2015624</v>
       </c>
-      <c r="I75" s="11">
+      <c r="N75" s="11">
         <v>2553366</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
+        <v>828837</v>
+      </c>
+      <c r="F77" s="13">
+        <v>613263</v>
+      </c>
+      <c r="G77" s="13">
+        <v>319077</v>
+      </c>
+      <c r="H77" s="13">
+        <v>569928</v>
+      </c>
+      <c r="I77" s="13">
+        <v>1344629</v>
+      </c>
+      <c r="J77" s="13">
         <v>981609</v>
       </c>
-      <c r="F77" s="13">
+      <c r="K77" s="13">
         <v>1254673</v>
       </c>
-      <c r="G77" s="13">
+      <c r="L77" s="13">
         <v>965665</v>
       </c>
-      <c r="H77" s="13">
+      <c r="M77" s="13">
         <v>2340226</v>
       </c>
-      <c r="I77" s="13">
+      <c r="N77" s="13">
         <v>3003288</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2072,8 +2922,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2082,8 +2937,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2092,10 +2952,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2114,8 +2979,23 @@
       <c r="I81" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2124,102 +3004,167 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
+        <v>312165</v>
+      </c>
+      <c r="F83" s="9">
+        <v>204588</v>
+      </c>
+      <c r="G83" s="9">
+        <v>87956</v>
+      </c>
+      <c r="H83" s="9">
+        <v>174095</v>
+      </c>
+      <c r="I83" s="9">
+        <v>348467</v>
+      </c>
+      <c r="J83" s="9">
         <v>234517</v>
       </c>
-      <c r="F83" s="9">
+      <c r="K83" s="9">
         <v>684849</v>
       </c>
-      <c r="G83" s="9">
+      <c r="L83" s="9">
         <v>250569</v>
       </c>
-      <c r="H83" s="9">
+      <c r="M83" s="9">
         <v>479266</v>
       </c>
-      <c r="I83" s="9">
+      <c r="N83" s="9">
         <v>466559</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>621288</v>
+      </c>
+      <c r="F84" s="11">
+        <v>457449</v>
+      </c>
+      <c r="G84" s="11">
+        <v>173502</v>
+      </c>
+      <c r="H84" s="11">
+        <v>259205</v>
+      </c>
+      <c r="I84" s="11">
+        <v>1031938</v>
+      </c>
+      <c r="J84" s="11">
         <v>691259</v>
       </c>
-      <c r="F84" s="11">
+      <c r="K84" s="11">
         <v>436075</v>
       </c>
-      <c r="G84" s="11">
+      <c r="L84" s="11">
         <v>521084</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>2069855</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>2515392</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
+        <v>933453</v>
+      </c>
+      <c r="F86" s="13">
+        <v>662037</v>
+      </c>
+      <c r="G86" s="13">
+        <v>261458</v>
+      </c>
+      <c r="H86" s="13">
+        <v>433300</v>
+      </c>
+      <c r="I86" s="13">
+        <v>1380405</v>
+      </c>
+      <c r="J86" s="13">
         <v>925776</v>
       </c>
-      <c r="F86" s="13">
+      <c r="K86" s="13">
         <v>1120924</v>
       </c>
-      <c r="G86" s="13">
+      <c r="L86" s="13">
         <v>771653</v>
       </c>
-      <c r="H86" s="13">
+      <c r="M86" s="13">
         <v>2549121</v>
       </c>
-      <c r="I86" s="13">
+      <c r="N86" s="13">
         <v>2981951</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2228,8 +3173,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2238,8 +3188,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2248,10 +3203,15 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2270,8 +3230,23 @@
       <c r="I90" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2280,102 +3255,167 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9">
+        <v>152977</v>
+      </c>
+      <c r="F92" s="9">
+        <v>101331</v>
+      </c>
+      <c r="G92" s="9">
+        <v>170028</v>
+      </c>
+      <c r="H92" s="9">
+        <v>292018</v>
+      </c>
+      <c r="I92" s="9">
+        <v>267384</v>
+      </c>
+      <c r="J92" s="9">
         <v>323358</v>
       </c>
-      <c r="F92" s="9">
+      <c r="K92" s="9">
         <v>463104</v>
       </c>
-      <c r="G92" s="9">
+      <c r="L92" s="9">
         <v>578927</v>
       </c>
-      <c r="H92" s="9">
+      <c r="M92" s="9">
         <v>424263</v>
       </c>
-      <c r="I92" s="9">
+      <c r="N92" s="9">
         <v>407626</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
+        <v>77135</v>
+      </c>
+      <c r="F93" s="11">
+        <v>80007</v>
+      </c>
+      <c r="G93" s="11">
+        <v>68929</v>
+      </c>
+      <c r="H93" s="11">
+        <v>83567</v>
+      </c>
+      <c r="I93" s="11">
+        <v>72425</v>
+      </c>
+      <c r="J93" s="11">
         <v>72284</v>
       </c>
-      <c r="F93" s="11">
+      <c r="K93" s="11">
         <v>66287</v>
       </c>
-      <c r="G93" s="11">
+      <c r="L93" s="11">
         <v>144477</v>
       </c>
-      <c r="H93" s="11">
+      <c r="M93" s="11">
         <v>90246</v>
       </c>
-      <c r="I93" s="11">
+      <c r="N93" s="11">
         <v>128220</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N94" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
+        <v>230112</v>
+      </c>
+      <c r="F95" s="13">
+        <v>181338</v>
+      </c>
+      <c r="G95" s="13">
+        <v>238957</v>
+      </c>
+      <c r="H95" s="13">
+        <v>375585</v>
+      </c>
+      <c r="I95" s="13">
+        <v>339809</v>
+      </c>
+      <c r="J95" s="13">
         <v>395642</v>
       </c>
-      <c r="F95" s="13">
+      <c r="K95" s="13">
         <v>529391</v>
       </c>
-      <c r="G95" s="13">
+      <c r="L95" s="13">
         <v>723404</v>
       </c>
-      <c r="H95" s="13">
+      <c r="M95" s="13">
         <v>514509</v>
       </c>
-      <c r="I95" s="13">
+      <c r="N95" s="13">
         <v>535846</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2384,8 +3424,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2394,8 +3439,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2404,10 +3454,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2426,8 +3481,23 @@
       <c r="I99" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2436,56 +3506,91 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <v>5894</v>
+      </c>
+      <c r="F101" s="9">
+        <v>4361</v>
+      </c>
+      <c r="G101" s="9">
+        <v>3442</v>
+      </c>
+      <c r="H101" s="9">
+        <v>5375</v>
+      </c>
+      <c r="I101" s="9">
+        <v>8058</v>
+      </c>
+      <c r="J101" s="9">
         <v>7294</v>
       </c>
-      <c r="F101" s="9">
+      <c r="K101" s="9">
         <v>9649</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>13453</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>16840</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>15920</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>216490</v>
+      </c>
+      <c r="F102" s="11">
+        <v>173493</v>
+      </c>
+      <c r="G102" s="11">
+        <v>195588</v>
+      </c>
+      <c r="H102" s="11">
+        <v>216434</v>
+      </c>
+      <c r="I102" s="11">
+        <v>181414</v>
+      </c>
+      <c r="J102" s="11">
         <v>275663</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>171884</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>205054</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>449899</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>412740</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2494,8 +3599,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2504,8 +3614,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2514,10 +3629,15 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -2536,8 +3656,23 @@
       <c r="I106" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2546,56 +3681,91 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
+        <v>8848</v>
+      </c>
+      <c r="F108" s="9">
+        <v>8194</v>
+      </c>
+      <c r="G108" s="9">
+        <v>6520</v>
+      </c>
+      <c r="H108" s="9">
+        <v>13633</v>
+      </c>
+      <c r="I108" s="9">
+        <v>11997</v>
+      </c>
+      <c r="J108" s="9">
         <v>14234</v>
       </c>
-      <c r="F108" s="9">
+      <c r="K108" s="9">
         <v>27713</v>
       </c>
-      <c r="G108" s="9">
+      <c r="L108" s="9">
         <v>25988</v>
       </c>
-      <c r="H108" s="9">
+      <c r="M108" s="9">
         <v>17975</v>
       </c>
-      <c r="I108" s="9">
+      <c r="N108" s="9">
         <v>20449</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
+        <v>12900</v>
+      </c>
+      <c r="F109" s="11">
+        <v>16819</v>
+      </c>
+      <c r="G109" s="11">
+        <v>32732</v>
+      </c>
+      <c r="H109" s="11">
+        <v>81371</v>
+      </c>
+      <c r="I109" s="11">
+        <v>34851</v>
+      </c>
+      <c r="J109" s="11">
         <v>73610</v>
       </c>
-      <c r="F109" s="11">
+      <c r="K109" s="11">
         <v>153439</v>
       </c>
-      <c r="G109" s="11">
+      <c r="L109" s="11">
         <v>265733</v>
       </c>
-      <c r="H109" s="11">
+      <c r="M109" s="11">
         <v>77967</v>
       </c>
-      <c r="I109" s="11">
+      <c r="N109" s="11">
         <v>75946</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2604,8 +3774,13 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2614,8 +3789,13 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2624,10 +3804,15 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -2646,8 +3831,23 @@
       <c r="I113" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M113" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2656,56 +3856,91 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
+        <v>9764</v>
+      </c>
+      <c r="F115" s="9">
+        <v>8418</v>
+      </c>
+      <c r="G115" s="9">
+        <v>3994</v>
+      </c>
+      <c r="H115" s="9">
+        <v>9995</v>
+      </c>
+      <c r="I115" s="9">
+        <v>13112</v>
+      </c>
+      <c r="J115" s="9">
         <v>9957</v>
       </c>
-      <c r="F115" s="9">
+      <c r="K115" s="9">
         <v>23176</v>
       </c>
-      <c r="G115" s="9">
+      <c r="L115" s="9">
         <v>18218</v>
       </c>
-      <c r="H115" s="9">
+      <c r="M115" s="9">
         <v>18586</v>
       </c>
-      <c r="I115" s="9">
+      <c r="N115" s="9">
         <v>18676</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>12961</v>
+      </c>
+      <c r="F116" s="11">
+        <v>16692</v>
+      </c>
+      <c r="G116" s="11">
+        <v>39674</v>
+      </c>
+      <c r="H116" s="11">
+        <v>79903</v>
+      </c>
+      <c r="I116" s="11">
+        <v>34995</v>
+      </c>
+      <c r="J116" s="11">
         <v>74884</v>
       </c>
-      <c r="F116" s="11">
+      <c r="K116" s="11">
         <v>147725</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>229607</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>79749</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>75006</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2714,8 +3949,13 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2724,8 +3964,13 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2734,10 +3979,15 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -2756,8 +4006,23 @@
       <c r="I120" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2766,56 +4031,91 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D122" s="9"/>
-      <c r="E122" s="9">
+      <c r="E122" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I122" s="9">
+        <v>7294</v>
+      </c>
+      <c r="J122" s="9">
         <v>9649</v>
       </c>
-      <c r="F122" s="9">
+      <c r="K122" s="9">
         <v>13735</v>
       </c>
-      <c r="G122" s="9">
+      <c r="L122" s="9">
         <v>16840</v>
       </c>
-      <c r="H122" s="9">
+      <c r="M122" s="9">
         <v>15920</v>
       </c>
-      <c r="I122" s="9">
+      <c r="N122" s="9">
         <v>17221</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="11">
+      <c r="E123" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I123" s="11">
+        <v>275663</v>
+      </c>
+      <c r="J123" s="11">
         <v>171884</v>
       </c>
-      <c r="F123" s="11">
+      <c r="K123" s="11">
         <v>244129</v>
       </c>
-      <c r="G123" s="11">
+      <c r="L123" s="11">
         <v>449899</v>
       </c>
-      <c r="H123" s="11">
+      <c r="M123" s="11">
         <v>412740</v>
       </c>
-      <c r="I123" s="11">
+      <c r="N123" s="11">
         <v>422931</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2824,8 +4124,13 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2834,8 +4139,13 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2844,10 +4154,15 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -2866,8 +4181,23 @@
       <c r="I127" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M127" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N127" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2876,32 +4206,52 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
+        <v>1855</v>
+      </c>
+      <c r="F129" s="9">
+        <v>4927</v>
+      </c>
+      <c r="G129" s="9">
+        <v>160</v>
+      </c>
+      <c r="H129" s="9">
+        <v>1715</v>
+      </c>
+      <c r="I129" s="9">
+        <v>1044</v>
+      </c>
+      <c r="J129" s="9">
         <v>4700</v>
       </c>
-      <c r="F129" s="9">
+      <c r="K129" s="9">
         <v>361</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>1088</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>2516</v>
       </c>
-      <c r="I129" s="9">
+      <c r="N129" s="9">
         <v>8470</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -2920,10 +4270,25 @@
       <c r="I130" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="11">
+        <v>0</v>
+      </c>
+      <c r="K130" s="11">
+        <v>0</v>
+      </c>
+      <c r="L130" s="11">
+        <v>0</v>
+      </c>
+      <c r="M130" s="11">
+        <v>0</v>
+      </c>
+      <c r="N130" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
@@ -2942,10 +4307,25 @@
       <c r="I131" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="9">
+        <v>0</v>
+      </c>
+      <c r="K131" s="9">
+        <v>0</v>
+      </c>
+      <c r="L131" s="9">
+        <v>0</v>
+      </c>
+      <c r="M131" s="9">
+        <v>0</v>
+      </c>
+      <c r="N131" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
@@ -2964,76 +4344,136 @@
       <c r="I132" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="11">
+        <v>0</v>
+      </c>
+      <c r="K132" s="11">
+        <v>0</v>
+      </c>
+      <c r="L132" s="11">
+        <v>0</v>
+      </c>
+      <c r="M132" s="11">
+        <v>0</v>
+      </c>
+      <c r="N132" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
+        <v>95</v>
+      </c>
+      <c r="F133" s="9">
+        <v>116</v>
+      </c>
+      <c r="G133" s="9">
+        <v>98</v>
+      </c>
+      <c r="H133" s="9">
+        <v>1925</v>
+      </c>
+      <c r="I133" s="9">
+        <v>201</v>
+      </c>
+      <c r="J133" s="9">
         <v>148</v>
       </c>
-      <c r="F133" s="9">
+      <c r="K133" s="9">
         <v>203</v>
       </c>
-      <c r="G133" s="9">
+      <c r="L133" s="9">
         <v>45</v>
       </c>
-      <c r="H133" s="9">
+      <c r="M133" s="9">
         <v>130</v>
       </c>
-      <c r="I133" s="9">
+      <c r="N133" s="9">
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
+        <v>3076</v>
+      </c>
+      <c r="F134" s="11">
+        <v>8387</v>
+      </c>
+      <c r="G134" s="11">
+        <v>2766</v>
+      </c>
+      <c r="H134" s="11">
+        <v>3913</v>
+      </c>
+      <c r="I134" s="11">
+        <v>4721</v>
+      </c>
+      <c r="J134" s="11">
         <v>16051</v>
       </c>
-      <c r="F134" s="11">
+      <c r="K134" s="11">
         <v>20429</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>5681</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>9434</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>12047</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
+        <v>8833</v>
+      </c>
+      <c r="F135" s="9">
+        <v>8609</v>
+      </c>
+      <c r="G135" s="9">
+        <v>8653</v>
+      </c>
+      <c r="H135" s="9">
+        <v>8888</v>
+      </c>
+      <c r="I135" s="9">
+        <v>9195</v>
+      </c>
+      <c r="J135" s="9">
         <v>8874</v>
       </c>
-      <c r="F135" s="9">
+      <c r="K135" s="9">
         <v>8699</v>
       </c>
-      <c r="G135" s="9">
+      <c r="L135" s="9">
         <v>9052</v>
       </c>
-      <c r="H135" s="9">
+      <c r="M135" s="9">
         <v>8980</v>
       </c>
-      <c r="I135" s="9">
+      <c r="N135" s="9">
         <v>8560</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
@@ -3052,10 +4492,25 @@
       <c r="I136" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="11">
+        <v>0</v>
+      </c>
+      <c r="K136" s="11">
+        <v>0</v>
+      </c>
+      <c r="L136" s="11">
+        <v>0</v>
+      </c>
+      <c r="M136" s="11">
+        <v>0</v>
+      </c>
+      <c r="N136" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -3074,52 +4529,97 @@
       <c r="I137" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="9">
+        <v>0</v>
+      </c>
+      <c r="K137" s="9">
+        <v>0</v>
+      </c>
+      <c r="L137" s="9">
+        <v>0</v>
+      </c>
+      <c r="M137" s="9">
+        <v>0</v>
+      </c>
+      <c r="N137" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
+        <v>110320</v>
+      </c>
+      <c r="F138" s="11">
+        <v>72111</v>
+      </c>
+      <c r="G138" s="11">
+        <v>10540</v>
+      </c>
+      <c r="H138" s="11">
+        <v>10175</v>
+      </c>
+      <c r="I138" s="11">
+        <v>99138</v>
+      </c>
+      <c r="J138" s="11">
         <v>26269</v>
       </c>
-      <c r="F138" s="11">
+      <c r="K138" s="11">
         <v>40278</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>8998</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>170067</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>189119</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
       <c r="E139" s="15">
+        <v>124179</v>
+      </c>
+      <c r="F139" s="15">
+        <v>94150</v>
+      </c>
+      <c r="G139" s="15">
+        <v>22217</v>
+      </c>
+      <c r="H139" s="15">
+        <v>26616</v>
+      </c>
+      <c r="I139" s="15">
+        <v>114299</v>
+      </c>
+      <c r="J139" s="15">
         <v>56042</v>
       </c>
-      <c r="F139" s="15">
+      <c r="K139" s="15">
         <v>69970</v>
       </c>
-      <c r="G139" s="15">
+      <c r="L139" s="15">
         <v>24864</v>
       </c>
-      <c r="H139" s="15">
+      <c r="M139" s="15">
         <v>191127</v>
       </c>
-      <c r="I139" s="15">
+      <c r="N139" s="15">
         <v>218356</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3128,8 +4628,13 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3138,8 +4643,13 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3148,10 +4658,15 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -3160,8 +4675,13 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3170,13 +4690,18 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -3184,13 +4709,18 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
@@ -3198,123 +4728,128 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>

--- a/database/industries/ghaza/gheshahdab/cost/quarterly.xlsx
+++ b/database/industries/ghaza/gheshahdab/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACE0059-1FC3-444E-B513-CFAD86B3FBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD226DA-AC42-4215-800C-F118FF9C8BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -727,12 +727,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -747,7 +747,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -781,7 +781,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -796,7 +796,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -845,7 +845,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -882,7 +882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -897,7 +897,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -934,7 +934,7 @@
         <v>2981951</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -971,7 +971,7 @@
         <v>24960</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>218356</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>3225267</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>3225267</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>3225267</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>1439450</v>
       </c>
       <c r="H19" s="11">
         <v>1270151</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <v>813985</v>
+        <v>661311</v>
       </c>
       <c r="L19" s="11">
         <v>135221</v>
@@ -1267,7 +1267,7 @@
         <v>1013758</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>-56524</v>
       </c>
       <c r="G20" s="9">
-        <v>169299</v>
+        <v>-1270151</v>
       </c>
       <c r="H20" s="9">
         <v>-938620</v>
@@ -1304,7 +1304,7 @@
         <v>-1030346</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>3208679</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>-447245</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>2761434</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1430,7 +1430,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1445,7 +1445,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1460,7 +1460,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1512,7 +1512,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>26649878</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>31</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>218651</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>17</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>26868529</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1679,7 +1679,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1694,7 +1694,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1709,7 +1709,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>35</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1761,7 +1761,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>29</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>22001785</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>31</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>33620599</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>33</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>17</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>55622384</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1928,7 +1928,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1943,7 +1943,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1958,7 +1958,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>36</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2010,7 +2010,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>29</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>24981863</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>31</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>33536080</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>33</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>17</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>58517943</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2177,7 +2177,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2192,7 +2192,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2207,7 +2207,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>37</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2259,7 +2259,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>29</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>23669800</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>31</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>303170</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>33</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>17</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>23972970</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2426,7 +2426,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2441,7 +2441,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2456,7 +2456,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>38</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2508,7 +2508,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>29</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>424263</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>31</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>90246</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>33</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>17</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>514509</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2677,7 +2677,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2692,7 +2692,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2707,7 +2707,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>40</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2759,7 +2759,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>29</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>449922</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>31</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>2553366</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>33</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>17</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>3003288</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2928,7 +2928,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2943,7 +2943,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2958,7 +2958,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>41</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3010,7 +3010,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>29</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>466559</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>31</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>2515392</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>33</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>17</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>2981951</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3179,7 +3179,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3194,7 +3194,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3209,7 +3209,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>42</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3261,7 +3261,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>29</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>407626</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>31</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>128220</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>33</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>17</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>535846</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3430,7 +3430,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3445,7 +3445,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3460,7 +3460,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>43</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3512,7 +3512,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>29</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>15920</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>31</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>412740</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3605,7 +3605,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3620,7 +3620,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3635,7 +3635,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>46</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3687,7 +3687,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>29</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>20449</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>31</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>75946</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3780,7 +3780,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3795,7 +3795,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3810,7 +3810,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>47</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3862,7 +3862,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>29</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>18676</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>31</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>75006</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3955,7 +3955,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3970,7 +3970,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3985,7 +3985,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
         <v>48</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4037,7 +4037,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>29</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>17221</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>31</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>422931</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4130,7 +4130,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4145,7 +4145,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4160,7 +4160,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B127" s="7" t="s">
         <v>49</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4212,7 +4212,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>50</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>51</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>52</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>53</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>54</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>55</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>12047</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>56</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>8560</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>57</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>58</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>59</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>189119</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="14" t="s">
         <v>17</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>218356</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4634,7 +4634,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4649,7 +4649,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4664,7 +4664,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>60</v>
       </c>
@@ -4681,7 +4681,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4696,7 +4696,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>61</v>
       </c>
@@ -4715,7 +4715,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>63</v>
       </c>
@@ -4734,7 +4734,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>65</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>67</v>
       </c>
@@ -4756,7 +4756,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>63</v>
       </c>
@@ -4767,7 +4767,7 @@
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>69</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>71</v>
       </c>
@@ -4789,7 +4789,7 @@
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>73</v>
       </c>
@@ -4800,7 +4800,7 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>74</v>
       </c>
@@ -4811,7 +4811,7 @@
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>75</v>
       </c>
@@ -4822,7 +4822,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>76</v>
       </c>
@@ -4833,7 +4833,7 @@
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>78</v>
       </c>
@@ -4844,7 +4844,7 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>80</v>
       </c>
